--- a/doc/группы-2 семестр.xlsx
+++ b/doc/группы-2 семестр.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\C#\omgtu\object-oriented-programming\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79567060-1381-478E-9C3F-8E7684E0EEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF61176-BF22-4EA5-A4D3-AAA9740D2218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИСТ-221" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="89">
   <si>
     <t>ФИО</t>
   </si>
@@ -135,21 +135,12 @@
     <t>Астрединов Ярослав</t>
   </si>
   <si>
-    <t>Кульков Илья</t>
-  </si>
-  <si>
     <t>Голованов Алексей</t>
   </si>
   <si>
     <t>Бункевич Валерия</t>
   </si>
   <si>
-    <t>Носов Кирилл</t>
-  </si>
-  <si>
-    <t>Мик Константин</t>
-  </si>
-  <si>
     <t>Велякин Константин</t>
   </si>
   <si>
@@ -180,18 +171,6 @@
     <t>Шеляков Матвей</t>
   </si>
   <si>
-    <t>Подкорытов Вадим</t>
-  </si>
-  <si>
-    <t>Пивоваров Алексей</t>
-  </si>
-  <si>
-    <t>Саввин Иван</t>
-  </si>
-  <si>
-    <t>Федосеев Илья</t>
-  </si>
-  <si>
     <t>Колясин Роман</t>
   </si>
   <si>
@@ -301,6 +280,30 @@
   </si>
   <si>
     <t xml:space="preserve">Задани 8 </t>
+  </si>
+  <si>
+    <t>Федосеев Илья (М)</t>
+  </si>
+  <si>
+    <t>Саввин Иван (М)</t>
+  </si>
+  <si>
+    <t>Пивоваров Алексей (М)</t>
+  </si>
+  <si>
+    <t>Подкорытов Вадим(М)</t>
+  </si>
+  <si>
+    <t>Носов Кирилл (М)</t>
+  </si>
+  <si>
+    <t>Кульков Илья(V)</t>
+  </si>
+  <si>
+    <t>Мик Константин(V)</t>
+  </si>
+  <si>
+    <t>Отчет</t>
   </si>
 </sst>
 </file>
@@ -686,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AA548C-599D-4F94-B64C-87DD7A7440AC}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,144 +705,178 @@
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>59</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>61</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -847,19 +884,19 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -874,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="16"/>
@@ -945,8 +982,12 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -956,13 +997,17 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -974,14 +1019,20 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -990,7 +1041,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1005,7 +1056,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -1020,7 +1071,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -1035,7 +1086,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1049,10 +1100,14 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1060,99 +1115,135 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -1160,38 +1251,48 @@
       <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
@@ -1206,7 +1307,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,7 +1388,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1302,7 +1403,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1311,7 +1412,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -1326,7 +1427,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -1341,7 +1442,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -1362,7 +1463,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -1383,7 +1484,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1400,12 +1501,12 @@
     </row>
     <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -1425,7 +1526,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -1445,7 +1546,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -1465,7 +1566,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -1482,7 +1583,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
